--- a/UDMI-CREATION/DELTA/RODENT-WLD/rdt-wld.xlsx
+++ b/UDMI-CREATION/DELTA/RODENT-WLD/rdt-wld.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="690" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="690" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="145">
   <si>
     <t>dbo.section</t>
   </si>
@@ -230,34 +230,10 @@
     <t>HVAC/AHU_</t>
   </si>
   <si>
-    <t>HLI-9</t>
-  </si>
-  <si>
     <t>2023-01-30T09:03:43Z</t>
   </si>
   <si>
     <t>RS256</t>
-  </si>
-  <si>
-    <t>HLI-9A</t>
-  </si>
-  <si>
-    <t>HLI-19A</t>
-  </si>
-  <si>
-    <t>HLI-19</t>
-  </si>
-  <si>
-    <t>HLI-34</t>
-  </si>
-  <si>
-    <t>HLI-34A</t>
-  </si>
-  <si>
-    <t>HLI-53</t>
-  </si>
-  <si>
-    <t>HLI-65</t>
   </si>
   <si>
     <t>no_units</t>
@@ -1079,7 +1055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
@@ -1175,19 +1151,19 @@
     </row>
     <row r="2" spans="1:22" ht="15">
       <c r="A2" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
         <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -1199,19 +1175,19 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="J2" t="s">
         <v>62</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="M2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N2" t="s">
         <v>63</v>
@@ -1227,19 +1203,19 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
         <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -1251,19 +1227,19 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="J3" t="s">
         <v>62</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="M3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N3" t="s">
         <v>63</v>
@@ -2150,35 +2126,35 @@
     </row>
     <row r="2" spans="1:8" ht="13.5" thickBot="1">
       <c r="A2" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" thickBot="1">
       <c r="A3" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -2186,16 +2162,16 @@
     </row>
     <row r="4" spans="1:8" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="3"/>
@@ -2203,16 +2179,16 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -2220,16 +2196,16 @@
     </row>
     <row r="6" spans="1:8" ht="14.25">
       <c r="A6" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -2237,16 +2213,16 @@
     </row>
     <row r="7" spans="1:8" ht="14.25">
       <c r="A7" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -2254,16 +2230,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -2271,16 +2247,16 @@
     </row>
     <row r="9" spans="1:8" ht="14.25">
       <c r="A9" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="C9" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="3"/>
@@ -2288,16 +2264,16 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -2305,16 +2281,16 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2322,16 +2298,16 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2339,16 +2315,16 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2356,16 +2332,16 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2373,16 +2349,16 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2390,16 +2366,16 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2407,16 +2383,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2424,16 +2400,16 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2441,16 +2417,16 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -2458,16 +2434,16 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -2475,16 +2451,16 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -2492,16 +2468,16 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -2509,16 +2485,16 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -2526,35 +2502,35 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -2562,16 +2538,16 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -2579,16 +2555,16 @@
     </row>
     <row r="27" spans="1:7" ht="14.25">
       <c r="A27" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="3"/>
@@ -2596,16 +2572,16 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -2613,16 +2589,16 @@
     </row>
     <row r="29" spans="1:7" ht="14.25">
       <c r="A29" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -2630,16 +2606,16 @@
     </row>
     <row r="30" spans="1:7" ht="14.25">
       <c r="A30" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -2647,16 +2623,16 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -2664,16 +2640,16 @@
     </row>
     <row r="32" spans="1:7" ht="14.25">
       <c r="A32" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="3"/>
@@ -2681,16 +2657,16 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -2698,16 +2674,16 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -6178,7 +6154,7 @@
     </row>
     <row r="852" spans="2:2">
       <c r="B852" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -6192,8 +6168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -6217,74 +6193,52 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="9" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="9" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>97</v>
-      </c>
+      <c r="A4" s="9"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>97</v>
-      </c>
+      <c r="A5" s="9"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>97</v>
-      </c>
+      <c r="A6" s="9"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>97</v>
-      </c>
+      <c r="A7" s="9"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>97</v>
-      </c>
+      <c r="A8" s="9"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>97</v>
-      </c>
+      <c r="A9" s="9"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:4">

--- a/UDMI-CREATION/DELTA/RODENT-WLD/rdt-wld.xlsx
+++ b/UDMI-CREATION/DELTA/RODENT-WLD/rdt-wld.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KYOTO-W-BOS\UDMI-CREATION\DELTA\RODENT-WLD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\UDMI-CREATION\DELTA\RODENT-WLD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEEFE0D-87EB-4BF6-B4E3-4DCF5B5BC0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="690" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="690" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="145">
   <si>
     <t>dbo.section</t>
   </si>
@@ -473,8 +474,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -583,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -605,9 +606,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -703,6 +701,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -738,6 +753,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -913,7 +945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
@@ -921,7 +953,7 @@
       <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="3" width="29.7109375" customWidth="1"/>
@@ -929,7 +961,7 @@
     <col min="5" max="5" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -946,7 +978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -960,7 +992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -977,7 +1009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -994,7 +1026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1011,7 +1043,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1028,7 +1060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1052,7 +1084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V122"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
@@ -1061,7 +1093,7 @@
       <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
@@ -1084,7 +1116,7 @@
     <col min="21" max="21" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -1149,7 +1181,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15">
+    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>90</v>
       </c>
@@ -1201,7 +1233,7 @@
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>96</v>
       </c>
@@ -1248,82 +1280,82 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="E8" s="9"/>
       <c r="I8" s="11"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="E9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="E10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="E11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="E12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="E13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="E14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:22" ht="15.75" customHeight="1">
+    <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="E15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="E16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="E17" s="9"/>
       <c r="K17" s="9"/>
@@ -1333,609 +1365,609 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="E18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="E19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="E20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="E21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="E22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="E23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="E24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="E25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="E26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="E27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
       <c r="E28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
       <c r="E29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="E30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="E31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="E32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="E33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="E34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="E35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="E36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="9"/>
       <c r="E37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
       <c r="E38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="9"/>
       <c r="E39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
       <c r="E40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
       <c r="E41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="E42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="E43" s="9"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="E44" s="9"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="E45" s="9"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
       <c r="E46" s="9"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
       <c r="E47" s="9"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
       <c r="E48" s="9"/>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
       <c r="E49" s="9"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
       <c r="E50" s="9"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="E51" s="9"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
       <c r="E52" s="9"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
       <c r="E53" s="9"/>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="E54" s="9"/>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="9"/>
       <c r="E55" s="9"/>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="9"/>
       <c r="E56" s="9"/>
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="9"/>
       <c r="E57" s="9"/>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="9"/>
       <c r="E58" s="9"/>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="9"/>
       <c r="E59" s="9"/>
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
       <c r="E60" s="9"/>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="9"/>
       <c r="E61" s="9"/>
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
       <c r="E62" s="9"/>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="9"/>
       <c r="E63" s="9"/>
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="9"/>
       <c r="E64" s="9"/>
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
       <c r="M64" s="9"/>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="9"/>
       <c r="E65" s="9"/>
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
       <c r="M65" s="9"/>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="9"/>
       <c r="E66" s="9"/>
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
       <c r="M66" s="9"/>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="9"/>
       <c r="E67" s="9"/>
       <c r="K67" s="9"/>
       <c r="L67" s="9"/>
       <c r="M67" s="9"/>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="9"/>
       <c r="E68" s="9"/>
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
       <c r="M68" s="9"/>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="9"/>
       <c r="E69" s="9"/>
       <c r="K69" s="9"/>
       <c r="L69" s="9"/>
       <c r="M69" s="9"/>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="9"/>
       <c r="E70" s="9"/>
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
       <c r="M70" s="9"/>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="9"/>
       <c r="E71" s="9"/>
       <c r="K71" s="9"/>
       <c r="L71" s="9"/>
       <c r="M71" s="9"/>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="9"/>
       <c r="E72" s="9"/>
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
       <c r="M72" s="9"/>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="9"/>
       <c r="E73" s="9"/>
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="9"/>
       <c r="E74" s="9"/>
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="9"/>
       <c r="E75" s="9"/>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="9"/>
       <c r="E76" s="9"/>
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
       <c r="M76" s="9"/>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="9"/>
       <c r="E77" s="9"/>
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
       <c r="M77" s="9"/>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="9"/>
       <c r="E78" s="9"/>
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
       <c r="M78" s="9"/>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="9"/>
       <c r="E79" s="9"/>
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
       <c r="M79" s="9"/>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="9"/>
       <c r="E80" s="9"/>
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
       <c r="M80" s="9"/>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="9"/>
       <c r="E81" s="9"/>
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
       <c r="M81" s="9"/>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="9"/>
       <c r="E82" s="9"/>
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
       <c r="M82" s="9"/>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="9"/>
       <c r="E83" s="9"/>
       <c r="K83" s="9"/>
       <c r="L83" s="9"/>
       <c r="M83" s="9"/>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="9"/>
       <c r="E84" s="9"/>
       <c r="K84" s="9"/>
       <c r="L84" s="9"/>
       <c r="M84" s="9"/>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="9"/>
       <c r="E85" s="9"/>
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
       <c r="M85" s="9"/>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="9"/>
       <c r="E86" s="9"/>
       <c r="K86" s="9"/>
       <c r="L86" s="9"/>
       <c r="M86" s="9"/>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="9"/>
       <c r="E87" s="9"/>
       <c r="K87" s="9"/>
       <c r="L87" s="9"/>
       <c r="M87" s="9"/>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="9"/>
       <c r="E88" s="9"/>
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
       <c r="M88" s="9"/>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="9"/>
       <c r="E89" s="9"/>
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
       <c r="M89" s="9"/>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="9"/>
       <c r="E90" s="9"/>
       <c r="K90" s="9"/>
       <c r="L90" s="9"/>
       <c r="M90" s="9"/>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="9"/>
       <c r="E91" s="9"/>
       <c r="K91" s="9"/>
       <c r="L91" s="9"/>
       <c r="M91" s="9"/>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="9"/>
       <c r="E92" s="9"/>
       <c r="K92" s="9"/>
       <c r="L92" s="9"/>
       <c r="M92" s="9"/>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="9"/>
       <c r="E93" s="9"/>
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
       <c r="M93" s="9"/>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="9"/>
       <c r="E94" s="9"/>
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
       <c r="M94" s="9"/>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="9"/>
       <c r="E95" s="9"/>
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
       <c r="M95" s="9"/>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="9"/>
       <c r="E96" s="9"/>
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
       <c r="M96" s="9"/>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="9"/>
       <c r="E97" s="9"/>
       <c r="K97" s="9"/>
       <c r="L97" s="9"/>
       <c r="M97" s="9"/>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="9"/>
       <c r="E98" s="9"/>
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
       <c r="M98" s="9"/>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="9"/>
       <c r="E99" s="9"/>
       <c r="K99" s="9"/>
       <c r="L99" s="9"/>
       <c r="M99" s="9"/>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="9"/>
       <c r="E100" s="9"/>
       <c r="K100" s="9"/>
       <c r="L100" s="9"/>
       <c r="M100" s="9"/>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="9"/>
       <c r="E101" s="9"/>
       <c r="K101" s="9"/>
       <c r="L101" s="9"/>
       <c r="M101" s="9"/>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="9"/>
       <c r="E102" s="9"/>
       <c r="K102" s="9"/>
       <c r="L102" s="9"/>
       <c r="M102" s="9"/>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="9"/>
       <c r="E103" s="9"/>
       <c r="K103" s="9"/>
       <c r="L103" s="9"/>
       <c r="M103" s="9"/>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="9"/>
       <c r="E104" s="9"/>
       <c r="I104" s="11"/>
@@ -1943,126 +1975,126 @@
       <c r="L104" s="9"/>
       <c r="M104" s="9"/>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="9"/>
       <c r="E105" s="9"/>
       <c r="K105" s="9"/>
       <c r="L105" s="9"/>
       <c r="M105" s="9"/>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="9"/>
       <c r="E106" s="9"/>
       <c r="K106" s="9"/>
       <c r="L106" s="9"/>
       <c r="M106" s="9"/>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="9"/>
       <c r="E107" s="9"/>
       <c r="K107" s="9"/>
       <c r="L107" s="9"/>
       <c r="M107" s="9"/>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="9"/>
       <c r="E108" s="9"/>
       <c r="K108" s="9"/>
       <c r="L108" s="9"/>
       <c r="M108" s="9"/>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="9"/>
       <c r="E109" s="9"/>
       <c r="K109" s="9"/>
       <c r="L109" s="9"/>
       <c r="M109" s="9"/>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="9"/>
       <c r="E110" s="9"/>
       <c r="K110" s="9"/>
       <c r="L110" s="9"/>
       <c r="M110" s="9"/>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="9"/>
       <c r="E111" s="9"/>
       <c r="K111" s="9"/>
       <c r="L111" s="9"/>
       <c r="M111" s="9"/>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="9"/>
       <c r="E112" s="9"/>
       <c r="K112" s="9"/>
       <c r="L112" s="9"/>
       <c r="M112" s="9"/>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="9"/>
       <c r="E113" s="9"/>
       <c r="K113" s="9"/>
       <c r="L113" s="9"/>
       <c r="M113" s="9"/>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="9"/>
       <c r="E114" s="9"/>
       <c r="K114" s="9"/>
       <c r="L114" s="9"/>
       <c r="M114" s="9"/>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="9"/>
       <c r="E115" s="9"/>
       <c r="K115" s="9"/>
       <c r="L115" s="9"/>
       <c r="M115" s="9"/>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="9"/>
       <c r="E116" s="9"/>
       <c r="K116" s="9"/>
       <c r="L116" s="9"/>
       <c r="M116" s="9"/>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="9"/>
       <c r="E117" s="9"/>
       <c r="K117" s="9"/>
       <c r="L117" s="9"/>
       <c r="M117" s="9"/>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="9"/>
       <c r="E118" s="9"/>
       <c r="K118" s="9"/>
       <c r="L118" s="9"/>
       <c r="M118" s="9"/>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="9"/>
       <c r="E119" s="9"/>
       <c r="K119" s="9"/>
       <c r="L119" s="9"/>
       <c r="M119" s="9"/>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="9"/>
       <c r="E120" s="9"/>
       <c r="K120" s="9"/>
       <c r="L120" s="9"/>
       <c r="M120" s="9"/>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="9"/>
       <c r="E121" s="9"/>
       <c r="K121" s="9"/>
       <c r="L121" s="9"/>
       <c r="M121" s="9"/>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="9"/>
       <c r="E122" s="9"/>
       <c r="K122" s="9"/>
@@ -2070,7 +2102,7 @@
       <c r="M122" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U996"/>
+  <autoFilter ref="A1:U996" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2078,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H852"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -2086,7 +2118,7 @@
       <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="46.28515625" customWidth="1"/>
@@ -2098,7 +2130,7 @@
     <col min="9" max="9" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.5" thickBot="1">
+    <row r="1" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -2124,7 +2156,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="13.5" thickBot="1">
+    <row r="2" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>96</v>
       </c>
@@ -2137,13 +2169,13 @@
       <c r="D2" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="10" t="s">
         <v>130</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="13.5" thickBot="1">
+    <row r="3" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>96</v>
       </c>
@@ -2160,7 +2192,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
+    <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>96</v>
       </c>
@@ -2177,7 +2209,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>96</v>
       </c>
@@ -2194,7 +2226,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="14.25">
+    <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>96</v>
       </c>
@@ -2211,7 +2243,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="14.25">
+    <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>96</v>
       </c>
@@ -2228,7 +2260,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>96</v>
       </c>
@@ -2245,7 +2277,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="14.25">
+    <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>96</v>
       </c>
@@ -2262,7 +2294,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>96</v>
       </c>
@@ -2279,7 +2311,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>96</v>
       </c>
@@ -2296,7 +2328,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>96</v>
       </c>
@@ -2313,7 +2345,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>96</v>
       </c>
@@ -2330,7 +2362,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>96</v>
       </c>
@@ -2347,7 +2379,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>96</v>
       </c>
@@ -2364,7 +2396,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>96</v>
       </c>
@@ -2381,7 +2413,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>96</v>
       </c>
@@ -2398,7 +2430,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>96</v>
       </c>
@@ -2415,7 +2447,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>96</v>
       </c>
@@ -2432,7 +2464,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>96</v>
       </c>
@@ -2449,7 +2481,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>96</v>
       </c>
@@ -2466,7 +2498,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>96</v>
       </c>
@@ -2483,7 +2515,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>96</v>
       </c>
@@ -2500,7 +2532,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>90</v>
       </c>
@@ -2519,7 +2551,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>90</v>
       </c>
@@ -2536,7 +2568,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>90</v>
       </c>
@@ -2553,7 +2585,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="14.25">
+    <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>90</v>
       </c>
@@ -2570,7 +2602,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>90</v>
       </c>
@@ -2587,7 +2619,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="14.25">
+    <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>90</v>
       </c>
@@ -2604,7 +2636,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" ht="14.25">
+    <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>90</v>
       </c>
@@ -2621,7 +2653,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>90</v>
       </c>
@@ -2638,7 +2670,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" ht="14.25">
+    <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>90</v>
       </c>
@@ -2655,7 +2687,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>90</v>
       </c>
@@ -2672,7 +2704,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>90</v>
       </c>
@@ -2689,7 +2721,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="B35" s="4"/>
       <c r="D35" s="10"/>
@@ -2697,7 +2729,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="B36" s="4"/>
       <c r="D36" s="10"/>
@@ -2705,7 +2737,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="9"/>
       <c r="B37" s="4"/>
       <c r="D37" s="10"/>
@@ -2713,7 +2745,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
       <c r="B38" s="10"/>
       <c r="D38" s="10"/>
@@ -2721,7 +2753,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="9"/>
       <c r="B39" s="10"/>
       <c r="D39" s="10"/>
@@ -2729,7 +2761,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
       <c r="B40" s="10"/>
       <c r="D40" s="10"/>
@@ -2737,7 +2769,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
       <c r="B41" s="10"/>
       <c r="D41" s="10"/>
@@ -2745,7 +2777,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="10"/>
       <c r="C42" s="4"/>
@@ -2754,7 +2786,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="B43" s="10"/>
       <c r="D43" s="10"/>
@@ -2762,3397 +2794,3397 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="D44" s="10"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="10"/>
       <c r="D45" s="10"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
       <c r="B46" s="10"/>
       <c r="D46" s="10"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
       <c r="B47" s="10"/>
       <c r="D47" s="10"/>
     </row>
-    <row r="48" spans="1:7" ht="15">
+    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="10"/>
       <c r="D48" s="10"/>
       <c r="G48" s="6"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
       <c r="B49" s="10"/>
       <c r="D49" s="10"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
       <c r="B50" s="10"/>
       <c r="C50" s="4"/>
       <c r="D50" s="10"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="B51" s="10"/>
       <c r="D51" s="10"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
       <c r="B52" s="10"/>
       <c r="D52" s="10"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
       <c r="B53" s="10"/>
       <c r="D53" s="10"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="B54" s="10"/>
       <c r="D54" s="10"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="9"/>
       <c r="B55" s="10"/>
       <c r="D55" s="10"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="9"/>
       <c r="B56" s="10"/>
       <c r="D56" s="10"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="9"/>
       <c r="B57" s="10"/>
       <c r="D57" s="10"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="9"/>
       <c r="B58" s="10"/>
       <c r="C58" s="4"/>
       <c r="D58" s="10"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="9"/>
       <c r="B59" s="10"/>
       <c r="D59" s="10"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
       <c r="B60" s="10"/>
       <c r="D60" s="10"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="9"/>
       <c r="B61" s="10"/>
       <c r="D61" s="10"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
       <c r="B62" s="10"/>
       <c r="D62" s="10"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="9"/>
       <c r="B63" s="10"/>
       <c r="D63" s="10"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="9"/>
       <c r="B64" s="10"/>
       <c r="D64" s="10"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="9"/>
       <c r="B65" s="10"/>
       <c r="D65" s="10"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="9"/>
       <c r="B66" s="10"/>
       <c r="C66" s="4"/>
       <c r="D66" s="10"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="9"/>
       <c r="B67" s="4"/>
       <c r="D67" s="10"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="9"/>
       <c r="B68" s="10"/>
       <c r="D68" s="10"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="9"/>
       <c r="B69" s="4"/>
       <c r="D69" s="10"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="9"/>
       <c r="B70" s="10"/>
       <c r="D70" s="10"/>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="9"/>
       <c r="B71" s="4"/>
       <c r="D71" s="10"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="9"/>
       <c r="B72" s="10"/>
       <c r="D72" s="10"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="9"/>
       <c r="B73" s="4"/>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="9"/>
       <c r="B74" s="10"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="9"/>
       <c r="B75" s="4"/>
       <c r="D75" s="4"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="9"/>
       <c r="B76" s="10"/>
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="9"/>
       <c r="B77" s="4"/>
       <c r="D77" s="4"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="9"/>
       <c r="B78" s="10"/>
       <c r="D78" s="4"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="9"/>
       <c r="B79" s="4"/>
       <c r="D79" s="4"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="9"/>
       <c r="B80" s="10"/>
       <c r="D80" s="4"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="9"/>
       <c r="B81" s="4"/>
       <c r="D81" s="4"/>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="9"/>
       <c r="B82" s="10"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="9"/>
       <c r="B83" s="4"/>
       <c r="D83" s="4"/>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="9"/>
       <c r="B84" s="10"/>
       <c r="D84" s="4"/>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="9"/>
       <c r="B85" s="4"/>
       <c r="D85" s="4"/>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="9"/>
       <c r="B86" s="10"/>
       <c r="D86" s="4"/>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="9"/>
       <c r="B87" s="4"/>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="9"/>
       <c r="B88" s="10"/>
       <c r="D88" s="4"/>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="9"/>
       <c r="B89" s="4"/>
       <c r="D89" s="4"/>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="9"/>
       <c r="B90" s="10"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="9"/>
       <c r="B91" s="4"/>
       <c r="D91" s="4"/>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="9"/>
       <c r="B92" s="10"/>
       <c r="D92" s="4"/>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="9"/>
       <c r="B93" s="4"/>
       <c r="D93" s="4"/>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="9"/>
       <c r="B94" s="10"/>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="9"/>
       <c r="B95" s="4"/>
       <c r="D95" s="4"/>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="9"/>
       <c r="B96" s="10"/>
       <c r="D96" s="4"/>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="9"/>
       <c r="B97" s="4"/>
       <c r="D97" s="4"/>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="9"/>
       <c r="B98" s="10"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="9"/>
       <c r="B99" s="10"/>
       <c r="D99" s="4"/>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="9"/>
       <c r="B100" s="10"/>
       <c r="D100" s="4"/>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="9"/>
       <c r="B101" s="10"/>
       <c r="D101" s="4"/>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="9"/>
       <c r="B102" s="10"/>
       <c r="D102" s="4"/>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="9"/>
       <c r="B103" s="10"/>
       <c r="D103" s="4"/>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="9"/>
       <c r="B104" s="10"/>
       <c r="D104" s="4"/>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="9"/>
       <c r="B105" s="10"/>
       <c r="D105" s="4"/>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="9"/>
       <c r="B106" s="10"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="9"/>
       <c r="B107" s="10"/>
       <c r="D107" s="4"/>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="9"/>
       <c r="B108" s="10"/>
       <c r="D108" s="4"/>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="9"/>
       <c r="B109" s="10"/>
       <c r="D109" s="4"/>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="9"/>
       <c r="B110" s="10"/>
       <c r="D110" s="4"/>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="9"/>
       <c r="B111" s="10"/>
       <c r="D111" s="4"/>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="9"/>
       <c r="B112" s="10"/>
       <c r="D112" s="4"/>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="9"/>
       <c r="B113" s="10"/>
       <c r="D113" s="4"/>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="9"/>
       <c r="B114" s="10"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="9"/>
       <c r="B115" s="10"/>
       <c r="D115" s="4"/>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="9"/>
       <c r="B116" s="10"/>
       <c r="D116" s="4"/>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="9"/>
       <c r="B117" s="10"/>
       <c r="D117" s="4"/>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="9"/>
       <c r="B118" s="10"/>
       <c r="D118" s="4"/>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="9"/>
       <c r="B119" s="10"/>
       <c r="D119" s="4"/>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="9"/>
       <c r="B120" s="10"/>
       <c r="D120" s="4"/>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="9"/>
       <c r="B121" s="10"/>
       <c r="D121" s="4"/>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="9"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="9"/>
       <c r="B123" s="4"/>
       <c r="D123" s="4"/>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="9"/>
       <c r="B124" s="4"/>
       <c r="D124" s="4"/>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="9"/>
       <c r="B125" s="4"/>
       <c r="D125" s="4"/>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="9"/>
       <c r="B126" s="4"/>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="9"/>
       <c r="B127" s="4"/>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="9"/>
       <c r="B128" s="4"/>
       <c r="D128" s="4"/>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="9"/>
       <c r="B129" s="4"/>
       <c r="D129" s="4"/>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="9"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="9"/>
       <c r="B131" s="4"/>
       <c r="D131" s="4"/>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="9"/>
       <c r="B132" s="4"/>
       <c r="D132" s="4"/>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="9"/>
       <c r="B133" s="4"/>
       <c r="D133" s="4"/>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="9"/>
       <c r="B134" s="4"/>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="9"/>
       <c r="B135" s="4"/>
       <c r="D135" s="4"/>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="9"/>
       <c r="B136" s="4"/>
       <c r="D136" s="4"/>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="9"/>
       <c r="B137" s="4"/>
       <c r="D137" s="4"/>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="9"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="9"/>
       <c r="B139" s="4"/>
       <c r="D139" s="4"/>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="9"/>
       <c r="B140" s="4"/>
       <c r="D140" s="4"/>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="9"/>
       <c r="B141" s="4"/>
       <c r="D141" s="4"/>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="9"/>
       <c r="B142" s="4"/>
       <c r="D142" s="4"/>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="9"/>
       <c r="B143" s="4"/>
       <c r="D143" s="4"/>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="9"/>
       <c r="B144" s="4"/>
       <c r="D144" s="4"/>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="9"/>
       <c r="B145" s="4"/>
       <c r="D145" s="4"/>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="9"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="9"/>
       <c r="B147" s="4"/>
       <c r="D147" s="4"/>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="9"/>
       <c r="B148" s="4"/>
       <c r="D148" s="4"/>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="9"/>
       <c r="B149" s="4"/>
       <c r="D149" s="4"/>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="9"/>
       <c r="B150" s="4"/>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="9"/>
       <c r="B151" s="4"/>
       <c r="D151" s="4"/>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="9"/>
       <c r="B152" s="4"/>
       <c r="D152" s="4"/>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="9"/>
       <c r="B153" s="4"/>
       <c r="D153" s="4"/>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="9"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="9"/>
       <c r="B155" s="4"/>
       <c r="D155" s="4"/>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="9"/>
       <c r="B156" s="4"/>
       <c r="D156" s="4"/>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="9"/>
       <c r="B157" s="4"/>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="9"/>
       <c r="B158" s="4"/>
       <c r="D158" s="4"/>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="9"/>
       <c r="B159" s="4"/>
       <c r="D159" s="4"/>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="9"/>
       <c r="B160" s="4"/>
       <c r="D160" s="4"/>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="9"/>
       <c r="B161" s="4"/>
       <c r="D161" s="4"/>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="9"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="9"/>
       <c r="B163" s="4"/>
       <c r="D163" s="4"/>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="9"/>
       <c r="B164" s="4"/>
       <c r="D164" s="4"/>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="9"/>
       <c r="B165" s="4"/>
       <c r="D165" s="4"/>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="9"/>
       <c r="B166" s="4"/>
       <c r="D166" s="4"/>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="9"/>
       <c r="B167" s="4"/>
       <c r="D167" s="4"/>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="9"/>
       <c r="B168" s="4"/>
       <c r="D168" s="4"/>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="9"/>
       <c r="B169" s="4"/>
       <c r="D169" s="4"/>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="9"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="9"/>
       <c r="B171" s="4"/>
       <c r="D171" s="4"/>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="9"/>
       <c r="B172" s="4"/>
       <c r="D172" s="4"/>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="9"/>
       <c r="B173" s="4"/>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="9"/>
       <c r="B174" s="4"/>
       <c r="D174" s="4"/>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="9"/>
       <c r="B175" s="4"/>
       <c r="D175" s="4"/>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="9"/>
       <c r="B176" s="4"/>
       <c r="D176" s="4"/>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="9"/>
       <c r="B177" s="4"/>
       <c r="D177" s="4"/>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="9"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="9"/>
       <c r="B179" s="4"/>
       <c r="D179" s="4"/>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="9"/>
       <c r="B180" s="4"/>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="9"/>
       <c r="B181" s="4"/>
       <c r="D181" s="4"/>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="9"/>
       <c r="B182" s="4"/>
       <c r="D182" s="4"/>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="9"/>
       <c r="B183" s="4"/>
       <c r="D183" s="4"/>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="9"/>
       <c r="B184" s="4"/>
       <c r="D184" s="4"/>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="9"/>
       <c r="B185" s="4"/>
       <c r="D185" s="4"/>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="9"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="9"/>
       <c r="B187" s="4"/>
       <c r="D187" s="4"/>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="9"/>
       <c r="B188" s="4"/>
       <c r="D188" s="4"/>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="9"/>
       <c r="B189" s="4"/>
       <c r="D189" s="4"/>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="9"/>
       <c r="B190" s="4"/>
       <c r="D190" s="4"/>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="9"/>
       <c r="B191" s="4"/>
       <c r="D191" s="4"/>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="9"/>
       <c r="B192" s="4"/>
       <c r="D192" s="4"/>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="9"/>
       <c r="B193" s="4"/>
       <c r="D193" s="4"/>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="9"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="9"/>
       <c r="B195" s="4"/>
       <c r="D195" s="4"/>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="9"/>
       <c r="B196" s="4"/>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="9"/>
       <c r="B197" s="4"/>
       <c r="D197" s="4"/>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="9"/>
       <c r="B198" s="4"/>
       <c r="D198" s="4"/>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="9"/>
       <c r="B199" s="4"/>
       <c r="D199" s="4"/>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="9"/>
       <c r="B200" s="4"/>
       <c r="D200" s="4"/>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="9"/>
       <c r="B201" s="4"/>
       <c r="D201" s="4"/>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="9"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="9"/>
       <c r="B203" s="4"/>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="9"/>
       <c r="B204" s="4"/>
       <c r="D204" s="4"/>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="9"/>
       <c r="B205" s="4"/>
       <c r="D205" s="4"/>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="9"/>
       <c r="B206" s="4"/>
       <c r="D206" s="4"/>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="9"/>
       <c r="B207" s="4"/>
       <c r="D207" s="4"/>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="9"/>
       <c r="B208" s="4"/>
       <c r="D208" s="4"/>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="9"/>
       <c r="B209" s="4"/>
       <c r="D209" s="4"/>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="9"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="9"/>
       <c r="B211" s="4"/>
       <c r="D211" s="4"/>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="9"/>
       <c r="B212" s="4"/>
       <c r="D212" s="4"/>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="9"/>
       <c r="B213" s="4"/>
       <c r="D213" s="4"/>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="9"/>
       <c r="B214" s="4"/>
       <c r="D214" s="4"/>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="9"/>
       <c r="B215" s="4"/>
       <c r="D215" s="4"/>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="9"/>
       <c r="B216" s="4"/>
       <c r="D216" s="4"/>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="9"/>
       <c r="B217" s="4"/>
       <c r="D217" s="4"/>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="9"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="9"/>
       <c r="B219" s="4"/>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="9"/>
       <c r="B220" s="4"/>
       <c r="D220" s="4"/>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="9"/>
       <c r="B221" s="4"/>
       <c r="D221" s="4"/>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="9"/>
       <c r="B222" s="4"/>
       <c r="D222" s="4"/>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="9"/>
       <c r="B223" s="4"/>
       <c r="D223" s="4"/>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="9"/>
       <c r="B224" s="4"/>
       <c r="D224" s="4"/>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="9"/>
       <c r="B225" s="4"/>
       <c r="D225" s="4"/>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="9"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="9"/>
       <c r="B227" s="4"/>
       <c r="D227" s="4"/>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="9"/>
       <c r="B228" s="4"/>
       <c r="D228" s="4"/>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="9"/>
       <c r="B229" s="4"/>
       <c r="D229" s="4"/>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="9"/>
       <c r="B230" s="4"/>
       <c r="D230" s="4"/>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="9"/>
       <c r="B231" s="4"/>
       <c r="D231" s="4"/>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="9"/>
       <c r="B232" s="4"/>
       <c r="D232" s="4"/>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="9"/>
       <c r="B233" s="4"/>
       <c r="D233" s="4"/>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="9"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="9"/>
       <c r="B235" s="4"/>
       <c r="D235" s="4"/>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="9"/>
       <c r="B236" s="4"/>
       <c r="D236" s="4"/>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="9"/>
       <c r="B237" s="4"/>
       <c r="D237" s="4"/>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="9"/>
       <c r="B238" s="4"/>
       <c r="D238" s="4"/>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="9"/>
       <c r="B239" s="4"/>
       <c r="D239" s="4"/>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="9"/>
       <c r="B240" s="4"/>
       <c r="D240" s="4"/>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="9"/>
       <c r="B241" s="4"/>
       <c r="D241" s="4"/>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="9"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="9"/>
       <c r="B243" s="4"/>
       <c r="D243" s="4"/>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="9"/>
       <c r="B244" s="4"/>
       <c r="D244" s="4"/>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="9"/>
       <c r="B245" s="4"/>
       <c r="D245" s="4"/>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="9"/>
       <c r="B246" s="4"/>
       <c r="D246" s="4"/>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="9"/>
       <c r="B247" s="4"/>
       <c r="D247" s="4"/>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="9"/>
       <c r="B248" s="4"/>
       <c r="D248" s="4"/>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="9"/>
       <c r="B249" s="4"/>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="9"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="9"/>
       <c r="B251" s="4"/>
       <c r="D251" s="4"/>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="9"/>
       <c r="B252" s="4"/>
       <c r="D252" s="4"/>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="9"/>
       <c r="B253" s="4"/>
       <c r="D253" s="4"/>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="9"/>
       <c r="B254" s="4"/>
       <c r="D254" s="4"/>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="9"/>
       <c r="B255" s="4"/>
       <c r="D255" s="4"/>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="9"/>
       <c r="B256" s="4"/>
       <c r="D256" s="4"/>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="9"/>
       <c r="B257" s="4"/>
       <c r="D257" s="4"/>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="9"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="9"/>
       <c r="B259" s="4"/>
       <c r="D259" s="4"/>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="9"/>
       <c r="B260" s="4"/>
       <c r="D260" s="4"/>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="9"/>
       <c r="B261" s="4"/>
       <c r="D261" s="4"/>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="9"/>
       <c r="B262" s="4"/>
       <c r="D262" s="4"/>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="9"/>
       <c r="B263" s="4"/>
       <c r="D263" s="4"/>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="9"/>
       <c r="B264" s="4"/>
       <c r="D264" s="4"/>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="9"/>
       <c r="B265" s="4"/>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="9"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="9"/>
       <c r="B267" s="4"/>
       <c r="D267" s="4"/>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="9"/>
       <c r="B268" s="4"/>
       <c r="D268" s="4"/>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="9"/>
       <c r="B269" s="4"/>
       <c r="D269" s="4"/>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="9"/>
       <c r="B270" s="4"/>
       <c r="D270" s="4"/>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="9"/>
       <c r="B271" s="4"/>
       <c r="D271" s="4"/>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="9"/>
       <c r="B272" s="4"/>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="9"/>
       <c r="B273" s="4"/>
       <c r="D273" s="4"/>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="9"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="9"/>
       <c r="B275" s="4"/>
       <c r="D275" s="4"/>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="9"/>
       <c r="B276" s="4"/>
       <c r="D276" s="4"/>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="9"/>
       <c r="B277" s="4"/>
       <c r="D277" s="4"/>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="9"/>
       <c r="B278" s="4"/>
       <c r="D278" s="4"/>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="9"/>
       <c r="B279" s="4"/>
       <c r="D279" s="4"/>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="9"/>
       <c r="B280" s="4"/>
       <c r="D280" s="4"/>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="9"/>
       <c r="B281" s="4"/>
       <c r="D281" s="4"/>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="9"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="9"/>
       <c r="B283" s="4"/>
       <c r="D283" s="4"/>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="9"/>
       <c r="B284" s="4"/>
       <c r="D284" s="4"/>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="9"/>
       <c r="B285" s="4"/>
       <c r="D285" s="4"/>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="9"/>
       <c r="B286" s="4"/>
       <c r="D286" s="4"/>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="9"/>
       <c r="B287" s="4"/>
       <c r="D287" s="4"/>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="9"/>
       <c r="B288" s="4"/>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="9"/>
       <c r="B289" s="4"/>
       <c r="D289" s="4"/>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="9"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="9"/>
       <c r="B291" s="4"/>
       <c r="D291" s="4"/>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="9"/>
       <c r="B292" s="4"/>
       <c r="D292" s="4"/>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="9"/>
       <c r="B293" s="4"/>
       <c r="D293" s="4"/>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="9"/>
       <c r="B294" s="4"/>
       <c r="D294" s="4"/>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="9"/>
       <c r="B295" s="4"/>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="9"/>
       <c r="B296" s="4"/>
       <c r="D296" s="4"/>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="9"/>
       <c r="B297" s="4"/>
       <c r="D297" s="4"/>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="9"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="9"/>
       <c r="B299" s="4"/>
       <c r="D299" s="4"/>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="9"/>
       <c r="B300" s="4"/>
       <c r="D300" s="4"/>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="9"/>
       <c r="B301" s="4"/>
       <c r="D301" s="4"/>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="9"/>
       <c r="B302" s="4"/>
       <c r="D302" s="4"/>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="9"/>
       <c r="B303" s="4"/>
       <c r="D303" s="4"/>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="9"/>
       <c r="B304" s="4"/>
       <c r="D304" s="4"/>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="9"/>
       <c r="B305" s="4"/>
       <c r="D305" s="4"/>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="9"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="9"/>
       <c r="B307" s="4"/>
       <c r="D307" s="4"/>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="9"/>
       <c r="B308" s="4"/>
       <c r="D308" s="4"/>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="9"/>
       <c r="B309" s="4"/>
       <c r="D309" s="4"/>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" s="9"/>
       <c r="B310" s="4"/>
       <c r="D310" s="4"/>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" s="9"/>
       <c r="B311" s="4"/>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="9"/>
       <c r="B312" s="4"/>
       <c r="D312" s="4"/>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" s="9"/>
       <c r="B313" s="4"/>
       <c r="D313" s="4"/>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="9"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" s="9"/>
       <c r="B315" s="4"/>
       <c r="D315" s="4"/>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" s="9"/>
       <c r="B316" s="4"/>
       <c r="D316" s="4"/>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" s="9"/>
       <c r="B317" s="4"/>
       <c r="D317" s="4"/>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" s="9"/>
       <c r="B318" s="4"/>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="9"/>
       <c r="B319" s="4"/>
       <c r="D319" s="4"/>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="9"/>
       <c r="B320" s="4"/>
       <c r="D320" s="4"/>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="9"/>
       <c r="B321" s="4"/>
       <c r="D321" s="4"/>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" s="9"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" s="9"/>
       <c r="B323" s="4"/>
       <c r="D323" s="4"/>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" s="9"/>
       <c r="B324" s="4"/>
       <c r="D324" s="4"/>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="9"/>
       <c r="B325" s="4"/>
       <c r="D325" s="4"/>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="9"/>
       <c r="B326" s="4"/>
       <c r="D326" s="4"/>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" s="9"/>
       <c r="B327" s="4"/>
       <c r="D327" s="4"/>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="9"/>
       <c r="B328" s="4"/>
       <c r="D328" s="4"/>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" s="9"/>
       <c r="B329" s="4"/>
       <c r="D329" s="4"/>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" s="9"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" s="9"/>
       <c r="B331" s="4"/>
       <c r="D331" s="4"/>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" s="9"/>
       <c r="B332" s="4"/>
       <c r="D332" s="4"/>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" s="9"/>
       <c r="B333" s="4"/>
       <c r="D333" s="4"/>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" s="9"/>
       <c r="B334" s="4"/>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" s="9"/>
       <c r="B335" s="4"/>
       <c r="D335" s="4"/>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" s="9"/>
       <c r="B336" s="4"/>
       <c r="D336" s="4"/>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" s="9"/>
       <c r="B337" s="4"/>
       <c r="D337" s="4"/>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" s="9"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" s="9"/>
       <c r="B339" s="4"/>
       <c r="D339" s="4"/>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" s="9"/>
       <c r="B340" s="4"/>
       <c r="D340" s="4"/>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" s="9"/>
       <c r="B341" s="4"/>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" s="9"/>
       <c r="B342" s="4"/>
       <c r="D342" s="4"/>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" s="9"/>
       <c r="B343" s="4"/>
       <c r="D343" s="4"/>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" s="9"/>
       <c r="B344" s="4"/>
       <c r="D344" s="4"/>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" s="9"/>
       <c r="B345" s="4"/>
       <c r="D345" s="4"/>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" s="9"/>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="9"/>
       <c r="B347" s="4"/>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="9"/>
       <c r="B348" s="4"/>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="9"/>
       <c r="B349" s="4"/>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="9"/>
       <c r="B350" s="4"/>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="9"/>
       <c r="B351" s="4"/>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="9"/>
       <c r="B352" s="4"/>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="9"/>
       <c r="B353" s="4"/>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" s="9"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="9"/>
       <c r="B355" s="4"/>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="9"/>
       <c r="B356" s="4"/>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="9"/>
       <c r="B357" s="4"/>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" s="9"/>
       <c r="B358" s="4"/>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="9"/>
       <c r="B359" s="4"/>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="9"/>
       <c r="B360" s="4"/>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" s="9"/>
       <c r="B361" s="4"/>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="9"/>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="9"/>
       <c r="B363" s="4"/>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="9"/>
       <c r="B364" s="4"/>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="9"/>
       <c r="B365" s="4"/>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" s="9"/>
       <c r="B366" s="4"/>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" s="9"/>
       <c r="B367" s="4"/>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" s="9"/>
       <c r="B368" s="4"/>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="9"/>
       <c r="B369" s="4"/>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="9"/>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="9"/>
       <c r="B371" s="4"/>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="9"/>
       <c r="B372" s="4"/>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="9"/>
       <c r="B373" s="4"/>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="9"/>
       <c r="B374" s="4"/>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" s="9"/>
       <c r="B375" s="4"/>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" s="9"/>
       <c r="B376" s="4"/>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" s="9"/>
       <c r="B377" s="4"/>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" s="9"/>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
       <c r="D378" s="4"/>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" s="9"/>
       <c r="B379" s="4"/>
       <c r="D379" s="4"/>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" s="9"/>
       <c r="B380" s="4"/>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" s="9"/>
       <c r="B381" s="4"/>
       <c r="D381" s="4"/>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" s="9"/>
       <c r="B382" s="4"/>
       <c r="D382" s="4"/>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" s="9"/>
       <c r="B383" s="4"/>
       <c r="D383" s="4"/>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" s="9"/>
       <c r="B384" s="4"/>
       <c r="D384" s="4"/>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="9"/>
       <c r="B385" s="4"/>
       <c r="D385" s="4"/>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" s="9"/>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
       <c r="D386" s="4"/>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" s="9"/>
       <c r="B387" s="4"/>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" s="9"/>
       <c r="B388" s="4"/>
       <c r="D388" s="4"/>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" s="9"/>
       <c r="B389" s="4"/>
       <c r="D389" s="4"/>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" s="9"/>
       <c r="B390" s="4"/>
       <c r="D390" s="4"/>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" s="9"/>
       <c r="B391" s="4"/>
       <c r="D391" s="4"/>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" s="9"/>
       <c r="B392" s="4"/>
       <c r="D392" s="4"/>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" s="9"/>
       <c r="B393" s="4"/>
       <c r="D393" s="4"/>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="9"/>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
       <c r="D394" s="4"/>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" s="9"/>
       <c r="B395" s="4"/>
       <c r="D395" s="4"/>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" s="9"/>
       <c r="B396" s="4"/>
       <c r="D396" s="4"/>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" s="9"/>
       <c r="B397" s="4"/>
       <c r="D397" s="4"/>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="9"/>
       <c r="B398" s="4"/>
       <c r="D398" s="4"/>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="9"/>
       <c r="B399" s="4"/>
       <c r="D399" s="4"/>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="9"/>
       <c r="B400" s="4"/>
       <c r="D400" s="4"/>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="9"/>
       <c r="B401" s="4"/>
       <c r="D401" s="4"/>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="9"/>
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
       <c r="D402" s="4"/>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="9"/>
       <c r="B403" s="4"/>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="9"/>
       <c r="B404" s="4"/>
       <c r="D404" s="4"/>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="9"/>
       <c r="B405" s="4"/>
       <c r="D405" s="4"/>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="9"/>
       <c r="B406" s="4"/>
       <c r="D406" s="4"/>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="9"/>
       <c r="B407" s="4"/>
       <c r="D407" s="4"/>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="9"/>
       <c r="B408" s="4"/>
       <c r="D408" s="4"/>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="9"/>
       <c r="B409" s="4"/>
       <c r="D409" s="4"/>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="9"/>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="9"/>
       <c r="B411" s="4"/>
       <c r="D411" s="4"/>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="9"/>
       <c r="B412" s="4"/>
       <c r="D412" s="4"/>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="9"/>
       <c r="B413" s="4"/>
       <c r="D413" s="4"/>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="9"/>
       <c r="B414" s="4"/>
       <c r="D414" s="4"/>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="9"/>
       <c r="B415" s="4"/>
       <c r="D415" s="4"/>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="9"/>
       <c r="B416" s="4"/>
       <c r="D416" s="4"/>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="9"/>
       <c r="B417" s="4"/>
       <c r="D417" s="4"/>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="9"/>
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
       <c r="D418" s="4"/>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="9"/>
       <c r="B419" s="4"/>
       <c r="D419" s="4"/>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="9"/>
       <c r="B420" s="4"/>
       <c r="D420" s="4"/>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="9"/>
       <c r="B421" s="4"/>
       <c r="D421" s="4"/>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="9"/>
       <c r="B422" s="4"/>
       <c r="D422" s="4"/>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="9"/>
       <c r="B423" s="4"/>
       <c r="D423" s="4"/>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="9"/>
       <c r="B424" s="4"/>
       <c r="D424" s="4"/>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="9"/>
       <c r="B425" s="4"/>
       <c r="D425" s="4"/>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="9"/>
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="9"/>
       <c r="B427" s="4"/>
       <c r="D427" s="4"/>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="9"/>
       <c r="B428" s="4"/>
       <c r="D428" s="4"/>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="9"/>
       <c r="B429" s="4"/>
       <c r="D429" s="4"/>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="9"/>
       <c r="B430" s="4"/>
       <c r="D430" s="4"/>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="9"/>
       <c r="B431" s="4"/>
       <c r="D431" s="4"/>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="9"/>
       <c r="B432" s="4"/>
       <c r="D432" s="4"/>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="9"/>
       <c r="B433" s="4"/>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="9"/>
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="9"/>
       <c r="B435" s="4"/>
       <c r="D435" s="4"/>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="9"/>
       <c r="B436" s="4"/>
       <c r="D436" s="4"/>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="9"/>
       <c r="B437" s="4"/>
       <c r="D437" s="4"/>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="9"/>
       <c r="B438" s="4"/>
       <c r="D438" s="4"/>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="9"/>
       <c r="B439" s="4"/>
       <c r="D439" s="4"/>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="9"/>
       <c r="B440" s="4"/>
       <c r="D440" s="4"/>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="9"/>
       <c r="B441" s="4"/>
       <c r="D441" s="4"/>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="9"/>
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="9"/>
       <c r="B443" s="4"/>
       <c r="D443" s="4"/>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="9"/>
       <c r="B444" s="4"/>
       <c r="D444" s="4"/>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="9"/>
       <c r="B445" s="4"/>
       <c r="D445" s="4"/>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="9"/>
       <c r="B446" s="4"/>
       <c r="D446" s="4"/>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="9"/>
       <c r="B447" s="4"/>
       <c r="D447" s="4"/>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="9"/>
       <c r="B448" s="4"/>
       <c r="D448" s="4"/>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="9"/>
       <c r="B449" s="4"/>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" s="9"/>
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
       <c r="D450" s="4"/>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="9"/>
       <c r="B451" s="4"/>
       <c r="D451" s="4"/>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="9"/>
       <c r="B452" s="4"/>
       <c r="D452" s="4"/>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="9"/>
       <c r="B453" s="4"/>
       <c r="D453" s="4"/>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="9"/>
       <c r="B454" s="4"/>
       <c r="D454" s="4"/>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" s="9"/>
       <c r="B455" s="4"/>
       <c r="D455" s="4"/>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="9"/>
       <c r="B456" s="4"/>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="9"/>
       <c r="B457" s="4"/>
       <c r="D457" s="4"/>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="9"/>
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
       <c r="D458" s="4"/>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="9"/>
       <c r="B459" s="4"/>
       <c r="D459" s="4"/>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="9"/>
       <c r="B460" s="4"/>
       <c r="D460" s="4"/>
     </row>
-    <row r="461" spans="1:4">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" s="9"/>
       <c r="B461" s="4"/>
       <c r="D461" s="4"/>
     </row>
-    <row r="462" spans="1:4">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="9"/>
       <c r="B462" s="4"/>
       <c r="D462" s="4"/>
     </row>
-    <row r="463" spans="1:4">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="9"/>
       <c r="B463" s="4"/>
       <c r="D463" s="4"/>
     </row>
-    <row r="464" spans="1:4">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="9"/>
       <c r="B464" s="4"/>
       <c r="D464" s="4"/>
     </row>
-    <row r="465" spans="1:4">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="9"/>
       <c r="B465" s="4"/>
       <c r="D465" s="4"/>
     </row>
-    <row r="466" spans="1:4">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="9"/>
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
       <c r="D466" s="4"/>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="9"/>
       <c r="B467" s="4"/>
       <c r="D467" s="4"/>
     </row>
-    <row r="468" spans="1:4">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="9"/>
       <c r="B468" s="4"/>
       <c r="D468" s="4"/>
     </row>
-    <row r="469" spans="1:4">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="9"/>
       <c r="B469" s="4"/>
       <c r="D469" s="4"/>
     </row>
-    <row r="470" spans="1:4">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="9"/>
       <c r="B470" s="4"/>
       <c r="D470" s="4"/>
     </row>
-    <row r="471" spans="1:4">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="9"/>
       <c r="B471" s="4"/>
       <c r="D471" s="4"/>
     </row>
-    <row r="472" spans="1:4">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="9"/>
       <c r="B472" s="4"/>
     </row>
-    <row r="473" spans="1:4">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="9"/>
       <c r="B473" s="4"/>
       <c r="D473" s="4"/>
     </row>
-    <row r="474" spans="1:4">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="9"/>
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
       <c r="D474" s="4"/>
     </row>
-    <row r="475" spans="1:4">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="9"/>
       <c r="B475" s="4"/>
       <c r="D475" s="4"/>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="9"/>
       <c r="B476" s="4"/>
       <c r="D476" s="4"/>
     </row>
-    <row r="477" spans="1:4">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="9"/>
       <c r="B477" s="4"/>
       <c r="D477" s="4"/>
     </row>
-    <row r="478" spans="1:4">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="9"/>
       <c r="B478" s="4"/>
       <c r="D478" s="4"/>
     </row>
-    <row r="479" spans="1:4">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="9"/>
       <c r="B479" s="4"/>
     </row>
-    <row r="480" spans="1:4">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" s="9"/>
       <c r="B480" s="4"/>
       <c r="D480" s="4"/>
     </row>
-    <row r="481" spans="1:4">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481" s="9"/>
       <c r="B481" s="4"/>
       <c r="D481" s="4"/>
     </row>
-    <row r="482" spans="1:4">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482" s="9"/>
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
       <c r="D482" s="4"/>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483" s="9"/>
       <c r="B483" s="4"/>
       <c r="D483" s="4"/>
     </row>
-    <row r="484" spans="1:4">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484" s="9"/>
       <c r="B484" s="4"/>
       <c r="D484" s="4"/>
     </row>
-    <row r="485" spans="1:4">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="9"/>
       <c r="B485" s="4"/>
       <c r="D485" s="4"/>
     </row>
-    <row r="486" spans="1:4">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486" s="9"/>
       <c r="B486" s="4"/>
       <c r="D486" s="4"/>
     </row>
-    <row r="487" spans="1:4">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="9"/>
       <c r="B487" s="4"/>
       <c r="D487" s="4"/>
     </row>
-    <row r="488" spans="1:4">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="9"/>
       <c r="B488" s="4"/>
       <c r="D488" s="4"/>
     </row>
-    <row r="489" spans="1:4">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="9"/>
       <c r="B489" s="4"/>
       <c r="D489" s="4"/>
     </row>
-    <row r="490" spans="1:4">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="9"/>
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
       <c r="D490" s="4"/>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="9"/>
       <c r="B491" s="4"/>
       <c r="D491" s="4"/>
     </row>
-    <row r="492" spans="1:4">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="9"/>
       <c r="B492" s="4"/>
       <c r="D492" s="4"/>
     </row>
-    <row r="493" spans="1:4">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="9"/>
       <c r="B493" s="4"/>
       <c r="D493" s="4"/>
     </row>
-    <row r="494" spans="1:4">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" s="9"/>
       <c r="B494" s="4"/>
       <c r="D494" s="4"/>
     </row>
-    <row r="495" spans="1:4">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495" s="9"/>
       <c r="B495" s="4"/>
       <c r="D495" s="4"/>
     </row>
-    <row r="496" spans="1:4">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="9"/>
       <c r="B496" s="4"/>
       <c r="D496" s="4"/>
     </row>
-    <row r="497" spans="1:4">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="9"/>
       <c r="B497" s="4"/>
       <c r="D497" s="4"/>
     </row>
-    <row r="498" spans="1:4">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="9"/>
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
       <c r="D498" s="4"/>
     </row>
-    <row r="499" spans="1:4">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="9"/>
       <c r="B499" s="4"/>
       <c r="D499" s="4"/>
     </row>
-    <row r="500" spans="1:4">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="9"/>
       <c r="B500" s="4"/>
       <c r="D500" s="4"/>
     </row>
-    <row r="501" spans="1:4">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="9"/>
       <c r="B501" s="4"/>
     </row>
-    <row r="502" spans="1:4">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="9"/>
       <c r="B502" s="4"/>
       <c r="D502" s="4"/>
     </row>
-    <row r="503" spans="1:4">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="9"/>
       <c r="B503" s="4"/>
       <c r="D503" s="4"/>
     </row>
-    <row r="504" spans="1:4">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="9"/>
       <c r="B504" s="4"/>
       <c r="D504" s="4"/>
     </row>
-    <row r="505" spans="1:4">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="9"/>
       <c r="B505" s="4"/>
       <c r="D505" s="4"/>
     </row>
-    <row r="506" spans="1:4">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="9"/>
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
       <c r="D506" s="4"/>
     </row>
-    <row r="507" spans="1:4">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="9"/>
       <c r="B507" s="4"/>
       <c r="D507" s="4"/>
     </row>
-    <row r="508" spans="1:4">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="9"/>
       <c r="B508" s="4"/>
     </row>
-    <row r="509" spans="1:4">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="9"/>
       <c r="B509" s="4"/>
       <c r="D509" s="4"/>
     </row>
-    <row r="510" spans="1:4">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="9"/>
       <c r="B510" s="4"/>
       <c r="D510" s="4"/>
     </row>
-    <row r="511" spans="1:4">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A511" s="9"/>
       <c r="B511" s="4"/>
       <c r="D511" s="4"/>
     </row>
-    <row r="512" spans="1:4">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A512" s="9"/>
       <c r="B512" s="4"/>
       <c r="D512" s="4"/>
     </row>
-    <row r="513" spans="1:4">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A513" s="9"/>
       <c r="B513" s="4"/>
       <c r="D513" s="4"/>
     </row>
-    <row r="514" spans="1:4">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A514" s="9"/>
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
     </row>
-    <row r="515" spans="1:4">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A515" s="9"/>
       <c r="B515" s="4"/>
     </row>
-    <row r="516" spans="1:4">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A516" s="9"/>
       <c r="B516" s="4"/>
     </row>
-    <row r="517" spans="1:4">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A517" s="9"/>
       <c r="B517" s="4"/>
     </row>
-    <row r="518" spans="1:4">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A518" s="9"/>
       <c r="B518" s="4"/>
     </row>
-    <row r="519" spans="1:4">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A519" s="9"/>
       <c r="B519" s="4"/>
     </row>
-    <row r="520" spans="1:4">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A520" s="9"/>
       <c r="B520" s="4"/>
     </row>
-    <row r="521" spans="1:4">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A521" s="9"/>
       <c r="B521" s="4"/>
     </row>
-    <row r="522" spans="1:4">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" s="9"/>
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
       <c r="D522" s="4"/>
     </row>
-    <row r="523" spans="1:4">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="9"/>
       <c r="B523" s="4"/>
       <c r="D523" s="4"/>
     </row>
-    <row r="524" spans="1:4">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A524" s="9"/>
       <c r="B524" s="4"/>
       <c r="D524" s="4"/>
     </row>
-    <row r="525" spans="1:4">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="9"/>
       <c r="B525" s="4"/>
     </row>
-    <row r="526" spans="1:4">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="9"/>
     </row>
-    <row r="527" spans="1:4">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="9"/>
     </row>
-    <row r="528" spans="1:4">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="9"/>
     </row>
-    <row r="529" spans="1:3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A529" s="9"/>
     </row>
-    <row r="530" spans="1:3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A530" s="9"/>
       <c r="C530" s="4"/>
     </row>
-    <row r="531" spans="1:3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A531" s="9"/>
     </row>
-    <row r="532" spans="1:3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A532" s="9"/>
     </row>
-    <row r="533" spans="1:3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A533" s="9"/>
     </row>
-    <row r="534" spans="1:3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A534" s="9"/>
     </row>
-    <row r="535" spans="1:3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A535" s="9"/>
     </row>
-    <row r="536" spans="1:3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A536" s="9"/>
     </row>
-    <row r="537" spans="1:3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537" s="9"/>
     </row>
-    <row r="538" spans="1:3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538" s="9"/>
       <c r="C538" s="4"/>
     </row>
-    <row r="539" spans="1:3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A539" s="9"/>
     </row>
-    <row r="540" spans="1:3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540" s="9"/>
     </row>
-    <row r="541" spans="1:3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541" s="9"/>
     </row>
-    <row r="542" spans="1:3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542" s="9"/>
     </row>
-    <row r="543" spans="1:3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543" s="9"/>
     </row>
-    <row r="544" spans="1:3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A544" s="9"/>
     </row>
-    <row r="545" spans="1:4">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545" s="9"/>
     </row>
-    <row r="546" spans="1:4">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546" s="9"/>
       <c r="C546" s="4"/>
     </row>
-    <row r="547" spans="1:4">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547" s="9"/>
     </row>
-    <row r="548" spans="1:4">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548" s="9"/>
     </row>
-    <row r="549" spans="1:4">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A549" s="9"/>
     </row>
-    <row r="550" spans="1:4">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A550" s="9"/>
     </row>
-    <row r="551" spans="1:4">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A551" s="9"/>
     </row>
-    <row r="552" spans="1:4">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A552" s="9"/>
     </row>
-    <row r="553" spans="1:4">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553" s="9"/>
     </row>
-    <row r="554" spans="1:4">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A554" s="9"/>
       <c r="C554" s="4"/>
       <c r="D554" s="4"/>
     </row>
-    <row r="555" spans="1:4">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555" s="9"/>
       <c r="D555" s="4"/>
     </row>
-    <row r="556" spans="1:4">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556" s="9"/>
       <c r="D556" s="4"/>
     </row>
-    <row r="557" spans="1:4">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557" s="9"/>
       <c r="D557" s="4"/>
     </row>
-    <row r="558" spans="1:4">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558" s="9"/>
       <c r="D558" s="4"/>
     </row>
-    <row r="559" spans="1:4">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A559" s="9"/>
       <c r="D559" s="4"/>
     </row>
-    <row r="560" spans="1:4">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560" s="9"/>
       <c r="D560" s="4"/>
     </row>
-    <row r="561" spans="1:4">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A561" s="9"/>
       <c r="D561" s="4"/>
     </row>
-    <row r="562" spans="1:4">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A562" s="9"/>
       <c r="C562" s="4"/>
     </row>
-    <row r="563" spans="1:4">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A563" s="9"/>
     </row>
-    <row r="564" spans="1:4">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A564" s="9"/>
     </row>
-    <row r="565" spans="1:4">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A565" s="9"/>
     </row>
-    <row r="566" spans="1:4">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A566" s="9"/>
     </row>
-    <row r="567" spans="1:4">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A567" s="9"/>
     </row>
-    <row r="568" spans="1:4">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A568" s="9"/>
     </row>
-    <row r="569" spans="1:4">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A569" s="9"/>
     </row>
-    <row r="570" spans="1:4">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A570" s="9"/>
       <c r="C570" s="4"/>
     </row>
-    <row r="571" spans="1:4">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A571" s="9"/>
     </row>
-    <row r="572" spans="1:4">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A572" s="9"/>
     </row>
-    <row r="573" spans="1:4">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A573" s="9"/>
     </row>
-    <row r="574" spans="1:4">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A574" s="9"/>
     </row>
-    <row r="575" spans="1:4">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A575" s="9"/>
     </row>
-    <row r="576" spans="1:4">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A576" s="9"/>
     </row>
-    <row r="577" spans="1:3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A577" s="9"/>
     </row>
-    <row r="578" spans="1:3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A578" s="9"/>
       <c r="C578" s="4"/>
     </row>
-    <row r="579" spans="1:3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579" s="9"/>
     </row>
-    <row r="580" spans="1:3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580" s="9"/>
     </row>
-    <row r="581" spans="1:3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581" s="9"/>
     </row>
-    <row r="582" spans="1:3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582" s="9"/>
     </row>
-    <row r="583" spans="1:3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583" s="9"/>
     </row>
-    <row r="584" spans="1:3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584" s="9"/>
     </row>
-    <row r="585" spans="1:3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585" s="9"/>
     </row>
-    <row r="586" spans="1:3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586" s="9"/>
       <c r="C586" s="4"/>
     </row>
-    <row r="587" spans="1:3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587" s="9"/>
     </row>
-    <row r="588" spans="1:3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A588" s="9"/>
     </row>
-    <row r="589" spans="1:3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589" s="9"/>
     </row>
-    <row r="590" spans="1:3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590" s="9"/>
     </row>
-    <row r="591" spans="1:3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591" s="9"/>
     </row>
-    <row r="592" spans="1:3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A592" s="9"/>
     </row>
-    <row r="593" spans="1:3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593" s="9"/>
     </row>
-    <row r="594" spans="1:3">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594" s="9"/>
       <c r="C594" s="4"/>
     </row>
-    <row r="595" spans="1:3">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A595" s="9"/>
     </row>
-    <row r="596" spans="1:3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A596" s="9"/>
     </row>
-    <row r="597" spans="1:3">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A597" s="9"/>
     </row>
-    <row r="598" spans="1:3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A598" s="9"/>
     </row>
-    <row r="599" spans="1:3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A599" s="9"/>
     </row>
-    <row r="600" spans="1:3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600" s="9"/>
     </row>
-    <row r="601" spans="1:3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A601" s="9"/>
     </row>
-    <row r="602" spans="1:3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A602" s="9"/>
       <c r="C602" s="4"/>
     </row>
-    <row r="603" spans="1:3">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A603" s="9"/>
     </row>
-    <row r="604" spans="1:3">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604" s="9"/>
     </row>
-    <row r="605" spans="1:3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605" s="9"/>
     </row>
-    <row r="606" spans="1:3">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" s="9"/>
     </row>
-    <row r="607" spans="1:3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" s="9"/>
     </row>
-    <row r="608" spans="1:3">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A608" s="9"/>
     </row>
-    <row r="609" spans="1:3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A609" s="9"/>
     </row>
-    <row r="610" spans="1:3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A610" s="9"/>
       <c r="C610" s="4"/>
     </row>
-    <row r="611" spans="1:3">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A611" s="9"/>
     </row>
-    <row r="612" spans="1:3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A612" s="9"/>
     </row>
-    <row r="613" spans="1:3">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613" s="9"/>
     </row>
-    <row r="614" spans="1:3">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A614" s="9"/>
     </row>
-    <row r="615" spans="1:3">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615" s="9"/>
     </row>
-    <row r="616" spans="1:3">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A616" s="9"/>
     </row>
-    <row r="617" spans="1:3">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617" s="9"/>
     </row>
-    <row r="618" spans="1:3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618" s="9"/>
       <c r="C618" s="4"/>
     </row>
-    <row r="619" spans="1:3">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619" s="9"/>
     </row>
-    <row r="620" spans="1:3">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620" s="9"/>
     </row>
-    <row r="621" spans="1:3">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621" s="9"/>
     </row>
-    <row r="622" spans="1:3">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A622" s="9"/>
     </row>
-    <row r="623" spans="1:3">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623" s="9"/>
     </row>
-    <row r="624" spans="1:3">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A624" s="9"/>
     </row>
-    <row r="625" spans="1:3">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A625" s="9"/>
     </row>
-    <row r="626" spans="1:3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A626" s="9"/>
       <c r="C626" s="4"/>
     </row>
-    <row r="627" spans="1:3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A627" s="9"/>
     </row>
-    <row r="628" spans="1:3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A628" s="9"/>
     </row>
-    <row r="629" spans="1:3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A629" s="9"/>
     </row>
-    <row r="630" spans="1:3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A630" s="9"/>
     </row>
-    <row r="631" spans="1:3">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A631" s="9"/>
     </row>
-    <row r="632" spans="1:3">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A632" s="9"/>
     </row>
-    <row r="633" spans="1:3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A633" s="9"/>
     </row>
-    <row r="634" spans="1:3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A634" s="9"/>
       <c r="C634" s="4"/>
     </row>
-    <row r="635" spans="1:3">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A635" s="9"/>
     </row>
-    <row r="636" spans="1:3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A636" s="9"/>
     </row>
-    <row r="637" spans="1:3">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A637" s="9"/>
     </row>
-    <row r="638" spans="1:3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A638" s="9"/>
     </row>
-    <row r="639" spans="1:3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A639" s="9"/>
     </row>
-    <row r="640" spans="1:3">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A640" s="9"/>
     </row>
-    <row r="641" spans="1:3">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A641" s="9"/>
     </row>
-    <row r="642" spans="1:3">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A642" s="9"/>
       <c r="C642" s="4"/>
     </row>
-    <row r="643" spans="1:3">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A643" s="9"/>
     </row>
-    <row r="644" spans="1:3">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A644" s="9"/>
     </row>
-    <row r="645" spans="1:3">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A645" s="9"/>
     </row>
-    <row r="646" spans="1:3">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A646" s="9"/>
     </row>
-    <row r="647" spans="1:3">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A647" s="9"/>
     </row>
-    <row r="648" spans="1:3">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A648" s="9"/>
     </row>
-    <row r="649" spans="1:3">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A649" s="9"/>
     </row>
-    <row r="650" spans="1:3">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A650" s="9"/>
       <c r="C650" s="4"/>
     </row>
-    <row r="651" spans="1:3">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A651" s="9"/>
     </row>
-    <row r="652" spans="1:3">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A652" s="9"/>
     </row>
-    <row r="653" spans="1:3">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A653" s="9"/>
     </row>
-    <row r="654" spans="1:3">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A654" s="9"/>
     </row>
-    <row r="655" spans="1:3">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A655" s="9"/>
     </row>
-    <row r="656" spans="1:3">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A656" s="9"/>
     </row>
-    <row r="657" spans="1:3">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A657" s="9"/>
     </row>
-    <row r="658" spans="1:3">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A658" s="9"/>
       <c r="C658" s="4"/>
     </row>
-    <row r="659" spans="1:3">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A659" s="9"/>
     </row>
-    <row r="660" spans="1:3">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A660" s="9"/>
     </row>
-    <row r="661" spans="1:3">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A661" s="9"/>
     </row>
-    <row r="662" spans="1:3">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A662" s="9"/>
     </row>
-    <row r="663" spans="1:3">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A663" s="9"/>
     </row>
-    <row r="664" spans="1:3">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A664" s="9"/>
     </row>
-    <row r="665" spans="1:3">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A665" s="9"/>
     </row>
-    <row r="666" spans="1:3">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A666" s="9"/>
       <c r="C666" s="4"/>
     </row>
-    <row r="667" spans="1:3">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A667" s="9"/>
     </row>
-    <row r="668" spans="1:3">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A668" s="9"/>
     </row>
-    <row r="669" spans="1:3">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A669" s="9"/>
     </row>
-    <row r="670" spans="1:3">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A670" s="9"/>
     </row>
-    <row r="671" spans="1:3">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A671" s="9"/>
     </row>
-    <row r="672" spans="1:3">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A672" s="9"/>
     </row>
-    <row r="673" spans="1:3">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A673" s="9"/>
     </row>
-    <row r="674" spans="1:3">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A674" s="9"/>
       <c r="C674" s="4"/>
     </row>
-    <row r="675" spans="1:3">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A675" s="9"/>
     </row>
-    <row r="676" spans="1:3">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A676" s="9"/>
     </row>
-    <row r="677" spans="1:3">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A677" s="9"/>
     </row>
-    <row r="678" spans="1:3">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A678" s="9"/>
     </row>
-    <row r="679" spans="1:3">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A679" s="9"/>
     </row>
-    <row r="680" spans="1:3">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A680" s="9"/>
     </row>
-    <row r="681" spans="1:3">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A681" s="9"/>
     </row>
-    <row r="682" spans="1:3">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A682" s="9"/>
       <c r="C682" s="4"/>
     </row>
-    <row r="683" spans="1:3">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A683" s="9"/>
     </row>
-    <row r="684" spans="1:3">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A684" s="9"/>
     </row>
-    <row r="685" spans="1:3">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A685" s="9"/>
     </row>
-    <row r="686" spans="1:3">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A686" s="9"/>
     </row>
-    <row r="687" spans="1:3">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A687" s="9"/>
     </row>
-    <row r="688" spans="1:3">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A688" s="9"/>
     </row>
-    <row r="689" spans="1:3">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A689" s="9"/>
     </row>
-    <row r="690" spans="1:3">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A690" s="9"/>
       <c r="C690" s="4"/>
     </row>
-    <row r="691" spans="1:3">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A691" s="9"/>
     </row>
-    <row r="692" spans="1:3">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A692" s="9"/>
     </row>
-    <row r="693" spans="1:3">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A693" s="9"/>
     </row>
-    <row r="694" spans="1:3">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A694" s="9"/>
     </row>
-    <row r="695" spans="1:3">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A695" s="9"/>
     </row>
-    <row r="696" spans="1:3">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A696" s="9"/>
     </row>
-    <row r="697" spans="1:3">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A697" s="9"/>
     </row>
-    <row r="698" spans="1:3">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A698" s="9"/>
       <c r="C698" s="4"/>
     </row>
-    <row r="699" spans="1:3">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A699" s="9"/>
     </row>
-    <row r="700" spans="1:3">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A700" s="9"/>
     </row>
-    <row r="701" spans="1:3">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A701" s="9"/>
     </row>
-    <row r="702" spans="1:3">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A702" s="9"/>
     </row>
-    <row r="703" spans="1:3">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A703" s="9"/>
     </row>
-    <row r="704" spans="1:3">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A704" s="9"/>
     </row>
-    <row r="705" spans="1:3">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A705" s="9"/>
     </row>
-    <row r="706" spans="1:3">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A706" s="9"/>
       <c r="C706" s="4"/>
     </row>
-    <row r="707" spans="1:3">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A707" s="9"/>
     </row>
-    <row r="708" spans="1:3">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A708" s="9"/>
     </row>
-    <row r="709" spans="1:3">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A709" s="9"/>
     </row>
-    <row r="710" spans="1:3">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A710" s="9"/>
     </row>
-    <row r="711" spans="1:3">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A711" s="9"/>
     </row>
-    <row r="712" spans="1:3">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A712" s="9"/>
     </row>
-    <row r="713" spans="1:3">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A713" s="9"/>
     </row>
-    <row r="714" spans="1:3">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A714" s="9"/>
       <c r="C714" s="4"/>
     </row>
-    <row r="715" spans="1:3">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A715" s="9"/>
     </row>
-    <row r="716" spans="1:3">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A716" s="9"/>
     </row>
-    <row r="717" spans="1:3">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A717" s="9"/>
     </row>
-    <row r="718" spans="1:3">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A718" s="9"/>
     </row>
-    <row r="719" spans="1:3">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A719" s="9"/>
     </row>
-    <row r="720" spans="1:3">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A720" s="9"/>
     </row>
-    <row r="721" spans="1:3">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A721" s="9"/>
     </row>
-    <row r="722" spans="1:3">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A722" s="9"/>
       <c r="C722" s="4"/>
     </row>
-    <row r="723" spans="1:3">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A723" s="9"/>
     </row>
-    <row r="724" spans="1:3">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A724" s="9"/>
     </row>
-    <row r="725" spans="1:3">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A725" s="9"/>
     </row>
-    <row r="726" spans="1:3">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A726" s="9"/>
     </row>
-    <row r="727" spans="1:3">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A727" s="9"/>
     </row>
-    <row r="728" spans="1:3">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A728" s="9"/>
     </row>
-    <row r="729" spans="1:3">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A729" s="9"/>
     </row>
-    <row r="730" spans="1:3">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A730" s="9"/>
       <c r="C730" s="4"/>
     </row>
-    <row r="731" spans="1:3">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A731" s="9"/>
     </row>
-    <row r="732" spans="1:3">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A732" s="9"/>
     </row>
-    <row r="733" spans="1:3">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A733" s="9"/>
     </row>
-    <row r="734" spans="1:3">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A734" s="9"/>
     </row>
-    <row r="735" spans="1:3">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A735" s="9"/>
     </row>
-    <row r="736" spans="1:3">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A736" s="9"/>
     </row>
-    <row r="737" spans="1:3">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A737" s="9"/>
     </row>
-    <row r="738" spans="1:3">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A738" s="9"/>
       <c r="C738" s="4"/>
     </row>
-    <row r="739" spans="1:3">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A739" s="9"/>
     </row>
-    <row r="740" spans="1:3">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A740" s="9"/>
     </row>
-    <row r="741" spans="1:3">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A741" s="9"/>
     </row>
-    <row r="742" spans="1:3">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A742" s="9"/>
     </row>
-    <row r="743" spans="1:3">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A743" s="9"/>
     </row>
-    <row r="744" spans="1:3">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A744" s="9"/>
     </row>
-    <row r="745" spans="1:3">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A745" s="9"/>
     </row>
-    <row r="746" spans="1:3">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A746" s="9"/>
       <c r="C746" s="4"/>
     </row>
-    <row r="747" spans="1:3">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A747" s="9"/>
     </row>
-    <row r="748" spans="1:3">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A748" s="9"/>
     </row>
-    <row r="749" spans="1:3">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A749" s="9"/>
     </row>
-    <row r="750" spans="1:3">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A750" s="9"/>
     </row>
-    <row r="751" spans="1:3">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A751" s="9"/>
     </row>
-    <row r="752" spans="1:3">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A752" s="9"/>
     </row>
-    <row r="753" spans="1:3">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A753" s="9"/>
     </row>
-    <row r="754" spans="1:3">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A754" s="9"/>
       <c r="C754" s="4"/>
     </row>
-    <row r="755" spans="1:3">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A755" s="9"/>
     </row>
-    <row r="756" spans="1:3">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A756" s="9"/>
     </row>
-    <row r="757" spans="1:3">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A757" s="9"/>
     </row>
-    <row r="758" spans="1:3">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A758" s="9"/>
     </row>
-    <row r="759" spans="1:3">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A759" s="9"/>
     </row>
-    <row r="760" spans="1:3">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A760" s="9"/>
     </row>
-    <row r="761" spans="1:3">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A761" s="9"/>
     </row>
-    <row r="762" spans="1:3">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A762" s="9"/>
       <c r="C762" s="4"/>
     </row>
-    <row r="763" spans="1:3">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A763" s="9"/>
     </row>
-    <row r="764" spans="1:3">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A764" s="9"/>
     </row>
-    <row r="765" spans="1:3">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A765" s="9"/>
     </row>
-    <row r="766" spans="1:3">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A766" s="9"/>
     </row>
-    <row r="767" spans="1:3">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A767" s="9"/>
     </row>
-    <row r="768" spans="1:3">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A768" s="9"/>
     </row>
-    <row r="769" spans="1:3">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A769" s="9"/>
     </row>
-    <row r="770" spans="1:3">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A770" s="9"/>
       <c r="C770" s="4"/>
     </row>
-    <row r="771" spans="1:3">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A771" s="9"/>
     </row>
-    <row r="772" spans="1:3">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A772" s="9"/>
     </row>
-    <row r="773" spans="1:3">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A773" s="9"/>
     </row>
-    <row r="774" spans="1:3">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A774" s="9"/>
     </row>
-    <row r="775" spans="1:3">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A775" s="9"/>
     </row>
-    <row r="776" spans="1:3">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A776" s="9"/>
     </row>
-    <row r="777" spans="1:3">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A777" s="9"/>
     </row>
-    <row r="778" spans="1:3">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A778" s="9"/>
       <c r="C778" s="4"/>
     </row>
-    <row r="779" spans="1:3">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A779" s="9"/>
     </row>
-    <row r="780" spans="1:3">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A780" s="9"/>
     </row>
-    <row r="781" spans="1:3">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A781" s="9"/>
     </row>
-    <row r="782" spans="1:3">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A782" s="9"/>
     </row>
-    <row r="783" spans="1:3">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A783" s="9"/>
     </row>
-    <row r="784" spans="1:3">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A784" s="9"/>
     </row>
-    <row r="785" spans="1:3">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A785" s="9"/>
     </row>
-    <row r="786" spans="1:3">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A786" s="9"/>
       <c r="C786" s="4"/>
     </row>
-    <row r="787" spans="1:3">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A787" s="9"/>
     </row>
-    <row r="788" spans="1:3">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A788" s="9"/>
     </row>
-    <row r="789" spans="1:3">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A789" s="9"/>
     </row>
-    <row r="790" spans="1:3">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A790" s="9"/>
     </row>
-    <row r="791" spans="1:3">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A791" s="9"/>
     </row>
-    <row r="792" spans="1:3">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A792" s="9"/>
     </row>
-    <row r="793" spans="1:3">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A793" s="9"/>
     </row>
-    <row r="794" spans="1:3">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A794" s="9"/>
       <c r="C794" s="4"/>
     </row>
-    <row r="795" spans="1:3">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A795" s="9"/>
     </row>
-    <row r="796" spans="1:3">
+    <row r="796" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A796" s="9"/>
     </row>
-    <row r="797" spans="1:3">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A797" s="9"/>
     </row>
-    <row r="798" spans="1:3">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A798" s="9"/>
     </row>
-    <row r="799" spans="1:3">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A799" s="9"/>
     </row>
-    <row r="800" spans="1:3">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A800" s="9"/>
     </row>
-    <row r="801" spans="1:3">
+    <row r="801" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A801" s="9"/>
     </row>
-    <row r="802" spans="1:3">
+    <row r="802" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A802" s="9"/>
       <c r="C802" s="4"/>
     </row>
-    <row r="803" spans="1:3">
+    <row r="803" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A803" s="9"/>
     </row>
-    <row r="804" spans="1:3">
+    <row r="804" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A804" s="9"/>
     </row>
-    <row r="805" spans="1:3">
+    <row r="805" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A805" s="9"/>
     </row>
-    <row r="806" spans="1:3">
+    <row r="806" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A806" s="9"/>
     </row>
-    <row r="807" spans="1:3">
+    <row r="807" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A807" s="9"/>
     </row>
-    <row r="808" spans="1:3">
+    <row r="808" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A808" s="9"/>
     </row>
-    <row r="809" spans="1:3">
+    <row r="809" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A809" s="9"/>
     </row>
-    <row r="810" spans="1:3">
+    <row r="810" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A810" s="9"/>
       <c r="C810" s="4"/>
     </row>
-    <row r="811" spans="1:3">
+    <row r="811" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A811" s="9"/>
     </row>
-    <row r="812" spans="1:3">
+    <row r="812" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A812" s="9"/>
     </row>
-    <row r="813" spans="1:3">
+    <row r="813" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A813" s="9"/>
     </row>
-    <row r="814" spans="1:3">
+    <row r="814" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A814" s="9"/>
     </row>
-    <row r="815" spans="1:3">
+    <row r="815" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A815" s="9"/>
     </row>
-    <row r="816" spans="1:3">
+    <row r="816" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A816" s="9"/>
     </row>
-    <row r="817" spans="1:3">
+    <row r="817" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A817" s="9"/>
     </row>
-    <row r="818" spans="1:3">
+    <row r="818" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A818" s="9"/>
       <c r="C818" s="4"/>
     </row>
-    <row r="819" spans="1:3">
+    <row r="819" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A819" s="9"/>
     </row>
-    <row r="820" spans="1:3">
+    <row r="820" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A820" s="9"/>
     </row>
-    <row r="821" spans="1:3">
+    <row r="821" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A821" s="9"/>
     </row>
-    <row r="822" spans="1:3">
+    <row r="822" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A822" s="9"/>
     </row>
-    <row r="823" spans="1:3">
+    <row r="823" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A823" s="9"/>
     </row>
-    <row r="824" spans="1:3">
+    <row r="824" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A824" s="9"/>
     </row>
-    <row r="825" spans="1:3">
+    <row r="825" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A825" s="9"/>
     </row>
-    <row r="826" spans="1:3">
+    <row r="826" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A826" s="9"/>
       <c r="C826" s="4"/>
     </row>
-    <row r="827" spans="1:3">
+    <row r="827" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A827" s="9"/>
     </row>
-    <row r="828" spans="1:3">
+    <row r="828" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A828" s="9"/>
     </row>
-    <row r="829" spans="1:3">
+    <row r="829" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A829" s="9"/>
     </row>
-    <row r="830" spans="1:3">
+    <row r="830" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A830" s="9"/>
     </row>
-    <row r="831" spans="1:3">
+    <row r="831" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A831" s="9"/>
     </row>
-    <row r="832" spans="1:3">
+    <row r="832" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A832" s="9"/>
     </row>
-    <row r="833" spans="1:3">
+    <row r="833" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A833" s="9"/>
     </row>
-    <row r="834" spans="1:3">
+    <row r="834" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A834" s="9"/>
       <c r="C834" s="4"/>
     </row>
-    <row r="835" spans="1:3">
+    <row r="835" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A835" s="9"/>
     </row>
-    <row r="836" spans="1:3">
+    <row r="836" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A836" s="9"/>
     </row>
-    <row r="837" spans="1:3">
+    <row r="837" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A837" s="9"/>
     </row>
-    <row r="838" spans="1:3">
+    <row r="838" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A838" s="9"/>
     </row>
-    <row r="839" spans="1:3">
+    <row r="839" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A839" s="9"/>
     </row>
-    <row r="840" spans="1:3">
+    <row r="840" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A840" s="9"/>
     </row>
-    <row r="841" spans="1:3">
+    <row r="841" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A841" s="9"/>
     </row>
-    <row r="852" spans="2:2">
+    <row r="852" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B852" t="s">
         <v>88</v>
       </c>
@@ -6165,21 +6197,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
@@ -6191,18 +6223,16 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>96</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>90</v>
       </c>
@@ -6211,602 +6241,602 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="9"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="9"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="9"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="9"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="9"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="9"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="9"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="9"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="9"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="9"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="9"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="9"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="9"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="9"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="9"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="9"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="9"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="9"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="9"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="9"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="9"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="9"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="9"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="9"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="9"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="9"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="9"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="9"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="9"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="9"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="9"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="9"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="9"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="9"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="9"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="9"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="9"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="9"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="9"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="9"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="9"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="9"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="9"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="9"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="9"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="9"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="9"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="9"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="9"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="9"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="9"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="9"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="9"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="9"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="9"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="9"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="9"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="9"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="9"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="9"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="9"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="9"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="9"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="9"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="9"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="9"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="9"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="9"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="9"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -6823,7 +6853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F146"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6831,7 +6861,7 @@
       <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
@@ -6840,7 +6870,7 @@
     <col min="6" max="6" width="38.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
@@ -6857,47 +6887,47 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="108" spans="1:6">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -6905,7 +6935,7 @@
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -6913,7 +6943,7 @@
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -6921,7 +6951,7 @@
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -6929,7 +6959,7 @@
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -6937,7 +6967,7 @@
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -6945,7 +6975,7 @@
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -6953,7 +6983,7 @@
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -6961,7 +6991,7 @@
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -6969,7 +6999,7 @@
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -6977,7 +7007,7 @@
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -6985,7 +7015,7 @@
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -6993,7 +7023,7 @@
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -7001,7 +7031,7 @@
       <c r="E120" s="7"/>
       <c r="F120" s="7"/>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -7009,7 +7039,7 @@
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -7017,7 +7047,7 @@
       <c r="E122" s="7"/>
       <c r="F122" s="7"/>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -7025,7 +7055,7 @@
       <c r="E123" s="7"/>
       <c r="F123" s="7"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -7033,7 +7063,7 @@
       <c r="E124" s="7"/>
       <c r="F124" s="7"/>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -7041,7 +7071,7 @@
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -7049,7 +7079,7 @@
       <c r="E126" s="8"/>
       <c r="F126" s="7"/>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -7057,7 +7087,7 @@
       <c r="E127" s="8"/>
       <c r="F127" s="7"/>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -7065,7 +7095,7 @@
       <c r="E128" s="7"/>
       <c r="F128" s="8"/>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -7073,7 +7103,7 @@
       <c r="E129" s="7"/>
       <c r="F129" s="8"/>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -7081,7 +7111,7 @@
       <c r="E130" s="7"/>
       <c r="F130" s="8"/>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -7089,7 +7119,7 @@
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -7097,7 +7127,7 @@
       <c r="E132" s="7"/>
       <c r="F132" s="7"/>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -7105,7 +7135,7 @@
       <c r="E133" s="7"/>
       <c r="F133" s="7"/>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -7113,7 +7143,7 @@
       <c r="E134" s="7"/>
       <c r="F134" s="7"/>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -7121,7 +7151,7 @@
       <c r="E135" s="7"/>
       <c r="F135" s="7"/>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -7129,7 +7159,7 @@
       <c r="E136" s="7"/>
       <c r="F136" s="7"/>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -7137,7 +7167,7 @@
       <c r="E137" s="7"/>
       <c r="F137" s="7"/>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -7145,7 +7175,7 @@
       <c r="E138" s="7"/>
       <c r="F138" s="7"/>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
@@ -7153,7 +7183,7 @@
       <c r="E139" s="7"/>
       <c r="F139" s="7"/>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
@@ -7161,7 +7191,7 @@
       <c r="E140" s="7"/>
       <c r="F140" s="7"/>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
@@ -7169,7 +7199,7 @@
       <c r="E141" s="7"/>
       <c r="F141" s="7"/>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
@@ -7177,7 +7207,7 @@
       <c r="E142" s="7"/>
       <c r="F142" s="7"/>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
@@ -7185,7 +7215,7 @@
       <c r="E143" s="7"/>
       <c r="F143" s="7"/>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
@@ -7193,7 +7223,7 @@
       <c r="E144" s="7"/>
       <c r="F144" s="7"/>
     </row>
-    <row r="145" spans="1:6" ht="13.5" customHeight="1">
+    <row r="145" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
@@ -7201,7 +7231,7 @@
       <c r="E145" s="7"/>
       <c r="F145" s="7"/>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
@@ -7216,7 +7246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -7224,7 +7254,7 @@
       <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" customWidth="1"/>
@@ -7232,7 +7262,7 @@
     <col min="4" max="4" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>

--- a/UDMI-CREATION/DELTA/RODENT-WLD/rdt-wld.xlsx
+++ b/UDMI-CREATION/DELTA/RODENT-WLD/rdt-wld.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\UDMI-CREATION\DELTA\RODENT-WLD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEEFE0D-87EB-4BF6-B4E3-4DCF5B5BC0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55961BDD-6AEF-4C9A-A5D0-AEF7DBDAFB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="690" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="690" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -1087,10 +1087,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V122"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6200,7 +6200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/UDMI-CREATION/DELTA/RODENT-WLD/rdt-wld.xlsx
+++ b/UDMI-CREATION/DELTA/RODENT-WLD/rdt-wld.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\UDMI-CREATION\DELTA\RODENT-WLD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55961BDD-6AEF-4C9A-A5D0-AEF7DBDAFB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4616F008-1F8D-4A2D-825C-B5E427795A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="690" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1090,7 +1090,7 @@
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2113,9 +2113,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H852"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/UDMI-CREATION/DELTA/RODENT-WLD/rdt-wld.xlsx
+++ b/UDMI-CREATION/DELTA/RODENT-WLD/rdt-wld.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\UDMI-CREATION\DELTA\RODENT-WLD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4616F008-1F8D-4A2D-825C-B5E427795A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79478EB4-4D4A-48B6-BD62-CCFB1FF11278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="690" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="690" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="146">
   <si>
     <t>dbo.section</t>
   </si>
@@ -469,6 +469,9 @@
   </si>
   <si>
     <t>AV211001.Present_Value</t>
+  </si>
+  <si>
+    <t>meters</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
@@ -2113,9 +2116,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H852"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:H34"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2183,7 +2186,7 @@
         <v>98</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>133</v>
@@ -2217,7 +2220,7 @@
         <v>100</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>69</v>
@@ -2251,7 +2254,7 @@
         <v>102</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>71</v>
@@ -2285,7 +2288,7 @@
         <v>104</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>73</v>
@@ -2319,7 +2322,7 @@
         <v>106</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>75</v>
@@ -2353,7 +2356,7 @@
         <v>108</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>77</v>
@@ -2387,7 +2390,7 @@
         <v>110</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>79</v>
@@ -2421,7 +2424,7 @@
         <v>112</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>81</v>
@@ -2455,7 +2458,7 @@
         <v>114</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>83</v>
@@ -2489,7 +2492,7 @@
         <v>116</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>85</v>
@@ -2523,7 +2526,7 @@
         <v>118</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>87</v>
@@ -6201,7 +6204,7 @@
   <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
